--- a/知识库问答模板-骏宇文博-4ab96e6a-4749-4495-adbb-3c217441e161.xlsx
+++ b/知识库问答模板-骏宇文博-4ab96e6a-4749-4495-adbb-3c217441e161.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12255"/>
+    <workbookView windowWidth="12840" windowHeight="8805"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
     <t>骏宇文博成立于二零零四年，于二零一七年新三板挂牌上市，股票代码八七零六三五。</t>
   </si>
   <si>
-    <t>公司主要从事</t>
+    <t>做什么</t>
   </si>
   <si>
     <t>骏宇文博是专业从事数字多媒体展览展示、国际国内大中型展览会、博物馆、规划馆、展示厅、文创产品等项目创意、策划、设计、运维于一体的高新技术企业。</t>
@@ -86,7 +86,7 @@
     <t>骏宇文博成立于二零零四年，是专业从事数字多媒体展览展示、国际国内大中型展览会、博物馆、规划馆、展示厅、文创产品等项目创意、策划、设计、运维于一体的高新技术企业。</t>
   </si>
   <si>
-    <t>公司在哪里</t>
+    <t>在哪里</t>
   </si>
   <si>
     <t>骏宇文博在昆明市西山区绿地汇海大厦十五艾。</t>
@@ -116,7 +116,7 @@
     <t>骏宇文博拥有中国特色解决民族问题正确道路的云南实践展示厅、云南广播电视台云南亚广影视传媒中心融媒体展示厅等优秀项目案例。</t>
   </si>
   <si>
-    <t>公司部门</t>
+    <t>部门</t>
   </si>
   <si>
     <t>骏宇文博拥有综合事业部，客户部，设计部，工程部，多媒体部，产品技术研发部，新媒体运营等部门。</t>
@@ -140,7 +140,7 @@
     <t>骏宇文博的设计部分别有设计一部、设计二部、设计三部。设计部主要负责项目场馆与展览的设计与策划。</t>
   </si>
   <si>
-    <t>定位是</t>
+    <t>定位</t>
   </si>
   <si>
     <t>联系</t>
@@ -326,7 +326,7 @@
     <t>骏宇文博的企业荣誉观是我们把任何一个工程都当作最终交付给我们自己使用一样对待。每一个环节都要以严肃认真的态度做细、做精。信誉是企业的无形资产，信誉是企业生存和发展的保证。</t>
   </si>
   <si>
-    <t>公司名字</t>
+    <t>名字</t>
   </si>
   <si>
     <t>我们公司的名称是云南骏宇国际文化博览股份有限公司。</t>
@@ -347,7 +347,7 @@
     <t>再见</t>
   </si>
   <si>
-    <t>公司名称</t>
+    <t>名称</t>
   </si>
 </sst>
 </file>
@@ -1284,8 +1284,8 @@
   <sheetPr/>
   <dimension ref="A1:B57"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+    <sheetView tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="A34" sqref="A34"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="14.25" outlineLevelCol="1"/>
